--- a/tables.xlsx
+++ b/tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>sex</t>
   </si>
@@ -33,15 +33,6 @@
     <t xml:space="preserve"> &lt; 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2 - 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5 - 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &gt; 10</t>
-  </si>
-  <si>
     <t>housing</t>
   </si>
   <si>
@@ -75,7 +66,7 @@
     <t>OR</t>
   </si>
   <si>
-    <t>(See attached code for calculation)</t>
+    <t>p-value</t>
   </si>
   <si>
     <t>n = 186</t>
@@ -84,10 +75,34 @@
     <t xml:space="preserve"> x 110%</t>
   </si>
   <si>
-    <t>cases ( n = 800)</t>
-  </si>
-  <si>
     <t>CI</t>
+  </si>
+  <si>
+    <t>cases ( n = 821)</t>
+  </si>
+  <si>
+    <t>seropositive</t>
+  </si>
+  <si>
+    <t>(See attached code for calculations)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;2</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>( 2.8 - 3.4 )</t>
+  </si>
+  <si>
+    <t>( 0.9 - 1.3 )</t>
+  </si>
+  <si>
+    <t>( 2.2 - 3.2 )</t>
+  </si>
+  <si>
+    <t>( 3.2 - 5.2 )</t>
   </si>
 </sst>
 </file>
@@ -119,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -136,23 +151,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,15 +225,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -192,7 +250,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1009650" y="4495800"/>
+          <a:off x="638175" y="4476750"/>
           <a:ext cx="3886200" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -490,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G32"/>
+  <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -503,27 +561,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -535,18 +599,18 @@
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9">
-        <f>E5*D$23</f>
+      <c r="D5" s="7">
+        <f>E5*D$20</f>
         <v>862.16000000000008</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.52</v>
       </c>
-      <c r="F5">
-        <f>G5*F$23</f>
-        <v>408</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F5" s="7">
+        <f>G5*F$20</f>
+        <v>418.71</v>
+      </c>
+      <c r="G5" s="5">
         <v>0.51</v>
       </c>
     </row>
@@ -554,480 +618,387 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="9">
-        <f>E6*D$23</f>
+      <c r="D6" s="7">
+        <f>E6*D$20</f>
         <v>795.83999999999992</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0.48</v>
       </c>
-      <c r="F6">
-        <f>G6*F$23</f>
-        <v>392</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="7">
+        <f>G6*F$20</f>
+        <v>402.29</v>
+      </c>
+      <c r="G6" s="5">
         <v>0.49</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="D7" s="9"/>
-      <c r="E7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:7">
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="9">
-        <f>E9*D$23</f>
-        <v>480.82</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F9">
-        <f>G9*F$23</f>
-        <v>240</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.3</v>
+      <c r="D9" s="7">
+        <f>E9*D$20</f>
+        <v>1027.96</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="F9" s="7">
+        <f>G9*F$20</f>
+        <v>476.17999999999995</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7">
+        <f>E10*D$20</f>
+        <v>630.04</v>
+      </c>
+      <c r="E10" s="5">
+        <f>1-E9</f>
+        <v>0.38</v>
+      </c>
+      <c r="F10" s="7">
+        <f>G10*F$20</f>
+        <v>344.82000000000005</v>
+      </c>
+      <c r="G10" s="5">
+        <f>1-G9</f>
+        <v>0.42000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="D11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="9">
-        <f>E10*D$23</f>
-        <v>348.18</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ref="F10:F12" si="0">G10*F$23</f>
-        <v>176</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="C11" s="2" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="9">
-        <f t="shared" ref="D10:D12" si="1">E11*D$23</f>
-        <v>431.08000000000004</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.26</v>
-      </c>
-      <c r="F11">
-        <f>G11*F$23</f>
-        <v>192</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="C12" s="2" t="s">
+      <c r="D13" s="7">
+        <f>E13*D$20</f>
+        <v>1193.76</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="F13" s="7">
+        <f>G13*F$20</f>
+        <v>574.69999999999993</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="9">
-        <f t="shared" si="1"/>
-        <v>397.91999999999996</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="D13" s="9"/>
-      <c r="E13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="7">
+        <f>E14*$D$20</f>
+        <v>464.24000000000007</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F14" s="7">
+        <f>G14*F$20</f>
+        <v>246.29999999999998</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="D15" s="7"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="C15" s="2" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="9">
-        <f>E15*D$23</f>
-        <v>1193.76</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0.72</v>
-      </c>
-      <c r="F15">
-        <f>G15*F$23</f>
-        <v>560</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="C16" s="2" t="s">
+      <c r="D17" s="7">
+        <f>E17*D$20</f>
+        <v>795.83999999999992</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="F17" s="7">
+        <f>G17*F$20</f>
+        <v>418.71</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="9">
-        <f>E16*$D$23</f>
-        <v>464.24000000000007</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ref="F15:F16" si="2">G16*F$23</f>
-        <v>240</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="D17" s="9"/>
-      <c r="E17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="D18" s="7">
+        <f>E18*D$20</f>
+        <v>862.16000000000008</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="F18" s="7">
+        <f>G18*F$20</f>
+        <v>402.29</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="9">
-        <f>E19*D$23</f>
-        <v>795.83999999999992</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0.48</v>
-      </c>
-      <c r="F19">
-        <f>G19*F$23</f>
-        <v>408</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="9">
-        <f>E20*D$23</f>
-        <v>862.16000000000008</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0.52</v>
-      </c>
-      <c r="F20">
-        <f>G20*F$23</f>
-        <v>392</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="E21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="E22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="C23" s="4" t="s">
+      <c r="E19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1658</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15">
+        <v>821</v>
+      </c>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="5">
-        <v>1658</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="5">
-        <v>800</v>
-      </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="D30">
+    </row>
+    <row r="27" spans="2:7">
+      <c r="C27">
         <f>186*1.1</f>
         <v>204.60000000000002</v>
       </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="D32" t="s">
-        <v>19</v>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="C28" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
+    <row r="2" spans="2:5" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.52</v>
-      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.48</v>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2.7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8">
-        <f>E8*D$22</f>
-        <v>480.82</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="8">
-        <f>E9*D$22</f>
-        <v>348.18</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.21</v>
+      <c r="C8" s="6"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" ref="D10:D11" si="0">E10*D$22</f>
-        <v>431.08000000000004</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.26</v>
-      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8">
-        <f t="shared" si="0"/>
-        <v>397.91999999999996</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.24</v>
-      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="8">
-        <f>E14*D$22</f>
-        <v>1193.76</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.72</v>
-      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8">
-        <f>E15*$D$22</f>
-        <v>464.24000000000007</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="8">
-        <f>E18*D$22</f>
-        <v>795.83999999999992</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="8">
-        <f>E19*D$22</f>
-        <v>862.16000000000008</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="2"/>
-      <c r="C22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1658</v>
-      </c>
-      <c r="E22" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
